--- a/biology/Médecine/Mostefa_Khiati/Mostefa_Khiati.xlsx
+++ b/biology/Médecine/Mostefa_Khiati/Mostefa_Khiati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mostéfa Khiati (né à Tiaret) est Professeur en pédiatrie à l'Université d'Alger, médecin-chercheur ainsi que Président et fondateur de la Fondation national pour la promotion de la santé et du développement de la recherche (la Forem) en Algérie.  Il est également auteur d'une quatre-vingtaine de livres dans plusieurs domaines: médecine, histoire, enfance, éthique, droit international humanitaire, etc. ainsi que de nombreuses publications.
 </t>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doctorat en médecine de l'Institut des sciences médicales d'Algérie en 1975. Assistant étranger à l'Université Paris VI en 1982. Docteur en sciences à la faculté de médecine d'Alger en 1984. Son parcours académique s'est effectué en Algérie, en Europe ainsi qu'au Canada [1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doctorat en médecine de l'Institut des sciences médicales d'Algérie en 1975. Assistant étranger à l'Université Paris VI en 1982. Docteur en sciences à la faculté de médecine d'Alger en 1984. Son parcours académique s'est effectué en Algérie, en Europe ainsi qu'au Canada . 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Professeur Mostefa Khiati a assuré la fonction de directeur central au Ministère de la santé (1984-1989).  Il est Président fondateur de la FOREM, ONG algérienne ayant le statut Ecosoc. Il dirige actuellement également le Conseil National d'évaluation de la Recherche et du développement Technologique.
 </t>
@@ -573,10 +589,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>"Maghrebian Medicine" award (Institut de la santé Paris) en 1986[2]
-"Union of Arab Physicians" award en 1989[3] (Chadli Benjedid award)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>"Maghrebian Medicine" award (Institut de la santé Paris) en 1986
+"Union of Arab Physicians" award en 1989 (Chadli Benjedid award)
 Union Maghreb Physicians society en 1997</t>
         </is>
       </c>
@@ -607,24 +625,63 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aperçu de ses livres
-L'Enfant diabétique insulino-dépendant en milieu maghrébin, édition Maloine: Paris et Office des publications universitaires: Alger (1982)[4],[5]
-L'essentiel en pédiatrie, édition Frison Roche: Paris et édition Enal: Alger (1988)[6],[7]
-Regard sur la santé, éditions Dahlab (1995)[8]
-Comment soigner votre enfant, édition Dahlab (1996)[9]
-Histoire de la médecine en Algérie: de l'Antiquité à nos jours, Éditions ANEP (2000) [10]
-Asthme et allergies respiratoires chez l'enfant, éditions FOREM (2002)[11]
-Les blouses blanches de la révolution, éditions ANEP (2011)[12]
-Histoires des épidémies, des famines et des catastrophes naturelles en Algérie, éditions FOREM (2011)[13]
-L’Émir Abd El Kader Fondateur du droit humain international, Éditions Forem (2013)[14]
-Nutrition pédiatrique, Office des publications universitaires (2014)[15]
-Les Camps de regroupements en Algérie durant la guerre de libération (1954-1962), éditions Houma (2014)[16]
-Les enfants de la guerre Algérie 1830-1962, éditions Houma (2017)[17]
-Mohamed Fechkeur Il n'y a de richesse que d'hommes, éditions A.C. COM Al Djazair (2018)[18]
-L’Émir Abdelkader, ses alliés et des ennemis, édition Casbah (2018), sous presse
-Aperçu de ses articles universitaires
-Expérimentation humaine et bioéthique, Journal algérien des sciences de la santé, Numéro 0,p.19, 01/2019[19]
-Bioéthique et islam, Journal Droit, déontologie et soin, Volume 10, Issue 1, pages 7-26, Elsevier, (mars 2010)[20]</t>
+          <t>Aperçu de ses livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Enfant diabétique insulino-dépendant en milieu maghrébin, édition Maloine: Paris et Office des publications universitaires: Alger (1982),
+L'essentiel en pédiatrie, édition Frison Roche: Paris et édition Enal: Alger (1988),
+Regard sur la santé, éditions Dahlab (1995)
+Comment soigner votre enfant, édition Dahlab (1996)
+Histoire de la médecine en Algérie: de l'Antiquité à nos jours, Éditions ANEP (2000) 
+Asthme et allergies respiratoires chez l'enfant, éditions FOREM (2002)
+Les blouses blanches de la révolution, éditions ANEP (2011)
+Histoires des épidémies, des famines et des catastrophes naturelles en Algérie, éditions FOREM (2011)
+L’Émir Abd El Kader Fondateur du droit humain international, Éditions Forem (2013)
+Nutrition pédiatrique, Office des publications universitaires (2014)
+Les Camps de regroupements en Algérie durant la guerre de libération (1954-1962), éditions Houma (2014)
+Les enfants de la guerre Algérie 1830-1962, éditions Houma (2017)
+Mohamed Fechkeur Il n'y a de richesse que d'hommes, éditions A.C. COM Al Djazair (2018)
+L’Émir Abdelkader, ses alliés et des ennemis, édition Casbah (2018), sous presse</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mostefa_Khiati</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mostefa_Khiati</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aperçu de ses articles universitaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Expérimentation humaine et bioéthique, Journal algérien des sciences de la santé, Numéro 0,p.19, 01/2019
+Bioéthique et islam, Journal Droit, déontologie et soin, Volume 10, Issue 1, pages 7-26, Elsevier, (mars 2010)</t>
         </is>
       </c>
     </row>
